--- a/pythia_ig/temp/pages/StructureDefinition-vax-patient.xlsx
+++ b/pythia_ig/temp/pages/StructureDefinition-vax-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T11:15:56-04:00</t>
+    <t>2024-04-30T11:57:33-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pythia_ig/temp/pages/StructureDefinition-vax-patient.xlsx
+++ b/pythia_ig/temp/pages/StructureDefinition-vax-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T11:57:33-04:00</t>
+    <t>2024-04-30T13:37:40-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pythia_ig/temp/pages/StructureDefinition-vax-patient.xlsx
+++ b/pythia_ig/temp/pages/StructureDefinition-vax-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="376">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T13:37:40-04:00</t>
+    <t>2024-04-30T19:45:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -423,38 +423,62 @@
     <t>Patient.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Patient.extension:assessmentDate</t>
+  </si>
+  <si>
+    <t>assessmentDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhirfli.dev/fhir/ig/pythia/StructureDefinition/assessment-date}
+</t>
+  </si>
+  <si>
+    <t>The date on which the vaccination assessment was made.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Patient.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Patient.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -599,10 +623,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>The gender of a person used for administrative purposes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
+    <t>http://fhirfli.dev/fhir/ig/pythia/ValueSet/vaccine-gender</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
@@ -830,6 +851,9 @@
     <t>Patient.contact.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -929,6 +953,12 @@
   </si>
   <si>
     <t>Needed to address the person correctly.</t>
+  </si>
+  <si>
+    <t>The gender of a person used for administrative purposes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
   </si>
   <si>
     <t>NK1-15</t>
@@ -1457,7 +1487,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO46"/>
+  <dimension ref="A1:AO47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1468,7 +1498,7 @@
   <cols>
     <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="16.29296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1476,7 +1506,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="50.07421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.97265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2457,7 +2487,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2476,17 +2506,15 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>79</v>
@@ -2523,16 +2551,14 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2550,7 +2576,7 @@
         <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>79</v>
@@ -2570,43 +2596,41 @@
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
         <v>142</v>
       </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>79</v>
       </c>
@@ -2654,7 +2678,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2663,13 +2687,13 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>79</v>
@@ -2693,7 +2717,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2706,13 +2730,13 @@
         <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>146</v>
@@ -2720,9 +2744,11 @@
       <c r="M11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>79</v>
@@ -2771,7 +2797,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2783,19 +2809,19 @@
         <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>79</v>
@@ -2803,10 +2829,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2817,38 +2843,34 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="P12" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q12" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
         <v>79</v>
       </c>
@@ -2892,13 +2914,13 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>79</v>
@@ -2907,16 +2929,16 @@
         <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>79</v>
@@ -2924,10 +2946,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2938,36 +2960,38 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="P13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
         <v>79</v>
       </c>
@@ -3011,13 +3035,13 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>79</v>
@@ -3026,16 +3050,16 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AL13" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AN13" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>79</v>
@@ -3043,10 +3067,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3069,19 +3093,19 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>79</v>
@@ -3130,7 +3154,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3145,16 +3169,16 @@
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>79</v>
@@ -3162,10 +3186,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3176,7 +3200,7 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -3188,19 +3212,19 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>79</v>
@@ -3225,13 +3249,13 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>79</v>
@@ -3249,13 +3273,13 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>79</v>
@@ -3264,16 +3288,16 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -3281,10 +3305,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3307,19 +3331,19 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -3344,13 +3368,11 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
@@ -3368,7 +3390,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3383,27 +3405,27 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3420,25 +3442,25 @@
         <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -3487,7 +3509,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3502,27 +3524,27 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3533,31 +3555,31 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
@@ -3606,13 +3628,13 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
@@ -3621,16 +3643,16 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>79</v>
@@ -3638,10 +3660,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3652,7 +3674,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -3661,20 +3683,22 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -3699,13 +3723,13 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>79</v>
@@ -3723,13 +3747,13 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
@@ -3738,16 +3762,16 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>79</v>
@@ -3755,10 +3779,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3781,19 +3805,17 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -3818,13 +3840,13 @@
         <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
@@ -3842,7 +3864,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3857,16 +3879,16 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
@@ -3874,10 +3896,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3888,7 +3910,7 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -3900,19 +3922,19 @@
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
@@ -3961,13 +3983,13 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
@@ -3976,16 +3998,16 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -3993,10 +4015,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4019,19 +4041,19 @@
         <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4080,7 +4102,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4092,19 +4114,19 @@
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>252</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4112,10 +4134,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4126,7 +4148,7 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4138,16 +4160,20 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4195,25 +4221,25 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AK23" t="s" s="2">
-        <v>161</v>
+        <v>259</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4227,21 +4253,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4253,17 +4279,15 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>261</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>79</v>
@@ -4312,22 +4336,22 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>79</v>
@@ -4344,14 +4368,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>263</v>
+        <v>145</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4364,26 +4388,24 @@
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4431,7 +4453,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4446,7 +4468,7 @@
         <v>138</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
@@ -4463,14 +4485,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4483,23 +4505,25 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>270</v>
+        <v>149</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -4524,13 +4548,13 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>271</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>272</v>
+        <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -4548,7 +4572,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4560,19 +4584,19 @@
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>273</v>
+        <v>130</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -4580,10 +4604,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4594,7 +4618,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -4606,17 +4630,17 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -4641,13 +4665,13 @@
         <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>79</v>
@@ -4665,13 +4689,13 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
@@ -4680,16 +4704,16 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>169</v>
+        <v>280</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -4697,10 +4721,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4711,7 +4735,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -4723,19 +4747,17 @@
         <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>177</v>
+        <v>285</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -4784,13 +4806,13 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
@@ -4799,16 +4821,16 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -4816,10 +4838,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4830,7 +4852,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -4842,17 +4864,19 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O29" t="s" s="2">
-        <v>288</v>
+        <v>184</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -4901,13 +4925,13 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>79</v>
@@ -4916,16 +4940,16 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -4933,10 +4957,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4959,17 +4983,17 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>182</v>
+        <v>293</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -4994,13 +5018,13 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
@@ -5018,7 +5042,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5033,16 +5057,16 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5050,10 +5074,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5076,17 +5100,17 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>295</v>
+        <v>107</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>296</v>
+        <v>189</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -5111,13 +5135,13 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>79</v>
@@ -5135,7 +5159,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5144,22 +5168,22 @@
         <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5167,10 +5191,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5193,16 +5217,18 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5250,7 +5276,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5259,22 +5285,22 @@
         <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5282,10 +5308,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5296,7 +5322,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -5308,20 +5334,16 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>247</v>
+        <v>312</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5369,13 +5391,13 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
@@ -5384,10 +5406,10 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>313</v>
+        <v>168</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5401,10 +5423,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5415,7 +5437,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -5427,16 +5449,20 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>256</v>
+        <v>317</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
       </c>
@@ -5484,25 +5510,25 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>258</v>
+        <v>316</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>161</v>
+        <v>321</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -5516,21 +5542,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -5542,17 +5568,15 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>133</v>
+        <v>261</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -5601,22 +5625,22 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>79</v>
@@ -5633,14 +5657,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>263</v>
+        <v>145</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5653,26 +5677,24 @@
         <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
       </c>
@@ -5720,7 +5742,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5735,7 +5757,7 @@
         <v>138</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
@@ -5752,45 +5774,45 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>318</v>
+        <v>271</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>320</v>
+        <v>148</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>321</v>
+        <v>149</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -5815,13 +5837,13 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
@@ -5839,31 +5861,31 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>322</v>
+        <v>130</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -5871,10 +5893,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5882,7 +5904,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>87</v>
@@ -5897,19 +5919,19 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>154</v>
+        <v>226</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -5934,13 +5956,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -5958,10 +5980,10 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>87</v>
@@ -5973,16 +5995,16 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -5990,21 +6012,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6016,18 +6038,20 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6075,13 +6099,13 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
@@ -6093,13 +6117,13 @@
         <v>339</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>161</v>
+        <v>340</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -6107,21 +6131,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6130,23 +6154,21 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6194,13 +6216,13 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
@@ -6209,16 +6231,16 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>346</v>
+        <v>168</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -6226,10 +6248,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6240,31 +6262,31 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -6313,13 +6335,13 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
@@ -6328,10 +6350,10 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>161</v>
+        <v>355</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6345,10 +6367,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6359,28 +6381,32 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>256</v>
+        <v>357</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6428,25 +6454,25 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>258</v>
+        <v>356</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>161</v>
+        <v>361</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -6460,21 +6486,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6486,17 +6512,15 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>133</v>
+        <v>261</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -6545,22 +6569,22 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>79</v>
@@ -6577,14 +6601,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>263</v>
+        <v>145</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6597,26 +6621,24 @@
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>79</v>
       </c>
@@ -6664,7 +6686,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6679,7 +6701,7 @@
         <v>138</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
@@ -6696,44 +6718,46 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>357</v>
+        <v>132</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>358</v>
+        <v>271</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>359</v>
+        <v>272</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
       </c>
@@ -6781,31 +6805,31 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>356</v>
+        <v>273</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -6813,10 +6837,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6839,15 +6863,17 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>107</v>
+        <v>366</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -6872,31 +6898,31 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>87</v>
@@ -6911,18 +6937,133 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>366</v>
+        <v>156</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="AO46" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/pythia_ig/temp/pages/StructureDefinition-vax-patient.xlsx
+++ b/pythia_ig/temp/pages/StructureDefinition-vax-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T19:45:10-04:00</t>
+    <t>2024-04-30T22:06:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pythia_ig/temp/pages/StructureDefinition-vax-patient.xlsx
+++ b/pythia_ig/temp/pages/StructureDefinition-vax-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T22:06:35-04:00</t>
+    <t>2024-05-01T10:29:48-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/pythia_ig/temp/pages/StructureDefinition-vax-patient.xlsx
+++ b/pythia_ig/temp/pages/StructureDefinition-vax-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-01T10:29:48-04:00</t>
+    <t>2024-05-06T15:25:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>87</v>
